--- a/src/test/resources/TestData/UserManagementTestData.xlsx
+++ b/src/test/resources/TestData/UserManagementTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC68B818-0443-4F5D-AE40-61AE2DCA822C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEC744B-B72F-4315-B48C-59448CAB374D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" firstSheet="1" activeTab="11" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" firstSheet="3" activeTab="12" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
   <sheets>
     <sheet name="tcADMN008" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <sheet name="tcADMN026" sheetId="14" r:id="rId9"/>
     <sheet name="tcADMN028" sheetId="17" r:id="rId10"/>
     <sheet name="tcADMN029" sheetId="18" r:id="rId11"/>
-    <sheet name="maxuser" sheetId="19" r:id="rId12"/>
+    <sheet name="tcADMN037F" sheetId="20" r:id="rId12"/>
+    <sheet name="tcADMN067A" sheetId="21" r:id="rId13"/>
+    <sheet name="maxuser" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="1063">
   <si>
     <t>Name</t>
   </si>
@@ -3189,6 +3191,42 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>AName</t>
+  </si>
+  <si>
+    <t>AID</t>
+  </si>
+  <si>
+    <t>AType</t>
+  </si>
+  <si>
+    <t>Amanufacturer</t>
+  </si>
+  <si>
+    <t>ALocation</t>
+  </si>
+  <si>
+    <t>ADMIN037F</t>
+  </si>
+  <si>
+    <t>037F</t>
+  </si>
+  <si>
+    <t>HeatBath</t>
+  </si>
+  <si>
+    <t>HTC</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>ADMIN067A</t>
+  </si>
+  <si>
+    <t>067A</t>
   </si>
 </sst>
 </file>
@@ -3298,7 +3336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3371,6 +3409,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3922,10 +3963,111 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E04850E-B624-4F0F-BC78-6F4F2DD42CE5}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B727272E-AEA2-454D-A669-B18F4FD5D59F}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D02E641-C7ED-4240-9174-2722394A9E3F}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData/UserManagementTestData.xlsx
+++ b/src/test/resources/TestData/UserManagementTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEC744B-B72F-4315-B48C-59448CAB374D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4769904B-0803-43D2-9FC1-B38F9CB16D66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" firstSheet="3" activeTab="12" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
@@ -25,8 +25,9 @@
     <sheet name="tcADMN028" sheetId="17" r:id="rId10"/>
     <sheet name="tcADMN029" sheetId="18" r:id="rId11"/>
     <sheet name="tcADMN037F" sheetId="20" r:id="rId12"/>
-    <sheet name="tcADMN067A" sheetId="21" r:id="rId13"/>
-    <sheet name="maxuser" sheetId="19" r:id="rId14"/>
+    <sheet name="tcADMN062" sheetId="22" r:id="rId13"/>
+    <sheet name="tcADMN067A" sheetId="21" r:id="rId14"/>
+    <sheet name="maxuser" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="1065">
   <si>
     <t>Name</t>
   </si>
@@ -3227,6 +3228,12 @@
   </si>
   <si>
     <t>067A</t>
+  </si>
+  <si>
+    <t>ADMIN062</t>
+  </si>
+  <si>
+    <t>062</t>
   </si>
 </sst>
 </file>
@@ -4015,10 +4022,59 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B2026-14CD-4EAC-BA6F-5B631C702D2B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B727272E-AEA2-454D-A669-B18F4FD5D59F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4063,7 +4119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D02E641-C7ED-4240-9174-2722394A9E3F}">
   <dimension ref="A1:H500"/>
   <sheetViews>

--- a/src/test/resources/TestData/UserManagementTestData.xlsx
+++ b/src/test/resources/TestData/UserManagementTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSC\git\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4769904B-0803-43D2-9FC1-B38F9CB16D66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650068AE-A31C-429E-83A5-51810626C00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" firstSheet="3" activeTab="12" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" firstSheet="7" activeTab="16" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
   <sheets>
     <sheet name="tcADMN008" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
     <sheet name="tcADMN037F" sheetId="20" r:id="rId12"/>
     <sheet name="tcADMN062" sheetId="22" r:id="rId13"/>
     <sheet name="tcADMN067A" sheetId="21" r:id="rId14"/>
-    <sheet name="maxuser" sheetId="19" r:id="rId15"/>
+    <sheet name="tcADMN069F" sheetId="24" r:id="rId15"/>
+    <sheet name="tcADMN069G" sheetId="25" r:id="rId16"/>
+    <sheet name="tcADMN074" sheetId="26" r:id="rId17"/>
+    <sheet name="maxuser" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1071">
   <si>
     <t>Name</t>
   </si>
@@ -3218,9 +3221,6 @@
     <t>HeatBath</t>
   </si>
   <si>
-    <t>HTC</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
   </si>
   <si>
@@ -3234,6 +3234,27 @@
   </si>
   <si>
     <t>062</t>
+  </si>
+  <si>
+    <t>Htc</t>
+  </si>
+  <si>
+    <t>ADMIN069F</t>
+  </si>
+  <si>
+    <t>069F</t>
+  </si>
+  <si>
+    <t>ADMIN069G</t>
+  </si>
+  <si>
+    <t>069G</t>
+  </si>
+  <si>
+    <t>ADMIN074</t>
+  </si>
+  <si>
+    <t>074</t>
   </si>
 </sst>
 </file>
@@ -3974,7 +3995,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,10 +4031,10 @@
         <v>1058</v>
       </c>
       <c r="D2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>1059</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -4025,8 +4046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B2026-14CD-4EAC-BA6F-5B631C702D2B}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4050,19 +4071,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>1063</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>1064</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>1058</v>
       </c>
       <c r="D2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>1059</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -4075,7 +4096,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4099,19 +4120,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>1061</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>1062</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>1058</v>
       </c>
       <c r="D2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>1059</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -4120,6 +4141,162 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A615B69D-ECD7-479F-A638-0A0BDE77938E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D276E4D-CCB5-4781-B05D-EEBEAEF86FFB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E321FFF1-5D86-489F-B910-4B4DF0D0B486}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D02E641-C7ED-4240-9174-2722394A9E3F}">
   <dimension ref="A1:H500"/>
   <sheetViews>

--- a/src/test/resources/TestData/UserManagementTestData.xlsx
+++ b/src/test/resources/TestData/UserManagementTestData.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSC\git\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650068AE-A31C-429E-83A5-51810626C00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D5FC6-1C5B-4B8A-9B14-BBE80146E7C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" firstSheet="7" activeTab="16" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
   <sheets>
-    <sheet name="tcADMN008" sheetId="1" r:id="rId1"/>
-    <sheet name="tcADMN009" sheetId="2" r:id="rId2"/>
-    <sheet name="tcADMN010" sheetId="3" r:id="rId3"/>
-    <sheet name="tcADMN011" sheetId="4" r:id="rId4"/>
-    <sheet name="tcADMN012" sheetId="5" r:id="rId5"/>
-    <sheet name="tcADMN021" sheetId="8" r:id="rId6"/>
-    <sheet name="tcADMN022" sheetId="9" r:id="rId7"/>
-    <sheet name="tcADMN025" sheetId="13" r:id="rId8"/>
-    <sheet name="tcADMN026" sheetId="14" r:id="rId9"/>
-    <sheet name="tcADMN028" sheetId="17" r:id="rId10"/>
-    <sheet name="tcADMN029" sheetId="18" r:id="rId11"/>
-    <sheet name="tcADMN037F" sheetId="20" r:id="rId12"/>
-    <sheet name="tcADMN062" sheetId="22" r:id="rId13"/>
-    <sheet name="tcADMN067A" sheetId="21" r:id="rId14"/>
-    <sheet name="tcADMN069F" sheetId="24" r:id="rId15"/>
-    <sheet name="tcADMN069G" sheetId="25" r:id="rId16"/>
-    <sheet name="tcADMN074" sheetId="26" r:id="rId17"/>
-    <sheet name="maxuser" sheetId="19" r:id="rId18"/>
+    <sheet name="LOGIN_024" sheetId="27" r:id="rId1"/>
+    <sheet name="tcADMN008" sheetId="1" r:id="rId2"/>
+    <sheet name="tcADMN009" sheetId="2" r:id="rId3"/>
+    <sheet name="tcADMN010" sheetId="3" r:id="rId4"/>
+    <sheet name="tcADMN011" sheetId="4" r:id="rId5"/>
+    <sheet name="tcADMN012" sheetId="5" r:id="rId6"/>
+    <sheet name="tcADMN021" sheetId="8" r:id="rId7"/>
+    <sheet name="tcADMN022" sheetId="9" r:id="rId8"/>
+    <sheet name="tcADMN025" sheetId="13" r:id="rId9"/>
+    <sheet name="tcADMN026" sheetId="14" r:id="rId10"/>
+    <sheet name="tcADMN028" sheetId="17" r:id="rId11"/>
+    <sheet name="tcADMN029" sheetId="18" r:id="rId12"/>
+    <sheet name="tcADMN037F" sheetId="20" r:id="rId13"/>
+    <sheet name="tcADMN062" sheetId="22" r:id="rId14"/>
+    <sheet name="tcADMN067A" sheetId="21" r:id="rId15"/>
+    <sheet name="tcADMN069F" sheetId="24" r:id="rId16"/>
+    <sheet name="tcADMN069G" sheetId="25" r:id="rId17"/>
+    <sheet name="tcADMN074" sheetId="26" r:id="rId18"/>
+    <sheet name="maxuser" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="1071">
   <si>
     <t>Name</t>
   </si>
@@ -3292,7 +3293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3335,6 +3336,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3364,7 +3371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3440,6 +3447,9 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3754,78 +3764,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6844256-8549-4F29-AEC2-F3718E7B5845}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85318551-19C4-4651-86D5-A01FCD0BEDC6}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="C2" s="8">
+        <v>111111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>449</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>449</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C2121726-AE2A-4D97-882A-5FB9B5AADAC6}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{AFFCC87A-E49C-4FD7-8083-6DCC84B70D52}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300FA0F9-C58F-4C27-AA27-2C4C705A017F}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{EA57F7E5-887A-4AEA-A8DA-CC820CE0A393}"/>
+    <hyperlink ref="C2:D2" r:id="rId2" display="Welcome5@AM" xr:uid="{D92C17F5-900E-40DC-AA43-338D8390D3CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D9F06-C61B-42E6-9F7B-8B3F90BB191B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3911,7 +4011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F292CD-DD2E-4F85-9B62-1ECD3B744AB0}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3990,7 +4090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E04850E-B624-4F0F-BC78-6F4F2DD42CE5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4042,7 +4142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B2026-14CD-4EAC-BA6F-5B631C702D2B}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4091,7 +4191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B727272E-AEA2-454D-A669-B18F4FD5D59F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4140,7 +4240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A615B69D-ECD7-479F-A638-0A0BDE77938E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4192,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D276E4D-CCB5-4781-B05D-EEBEAEF86FFB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4244,11 +4344,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E321FFF1-5D86-489F-B910-4B4DF0D0B486}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4296,7 +4396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D02E641-C7ED-4240-9174-2722394A9E3F}">
   <dimension ref="A1:H500"/>
   <sheetViews>
@@ -17320,6 +17420,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6844256-8549-4F29-AEC2-F3718E7B5845}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C2121726-AE2A-4D97-882A-5FB9B5AADAC6}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{AFFCC87A-E49C-4FD7-8083-6DCC84B70D52}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D3435-3578-43C7-9257-8386301BE45D}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -17384,7 +17556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D45820-850F-4509-AC94-52EF65FB8800}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -17574,7 +17746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828ED7CA-A5E7-42AA-9988-3D2A4554DADC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -17638,7 +17810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085DC14B-8E32-4F79-8AE0-D17B1FBB9EC7}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -17711,7 +17883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC3C7EE-407E-4327-AA5D-6BA458EBDC28}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -17776,7 +17948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276B0B36-A61C-445F-BE6E-42C476FED9AF}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -17847,7 +18019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5335B6-CB8D-48D6-B8DE-668C59B57752}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -17925,90 +18097,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300FA0F9-C58F-4C27-AA27-2C4C705A017F}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{EA57F7E5-887A-4AEA-A8DA-CC820CE0A393}"/>
-    <hyperlink ref="C2:D2" r:id="rId2" display="Welcome5@AM" xr:uid="{D92C17F5-900E-40DC-AA43-338D8390D3CE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData/UserManagementTestData.xlsx
+++ b/src/test/resources/TestData/UserManagementTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSC\git\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D5FC6-1C5B-4B8A-9B14-BBE80146E7C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A7700B-933D-4AE1-9166-05BD6BF8D433}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" firstSheet="10" activeTab="19" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN_024" sheetId="27" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="tcADMN069G" sheetId="25" r:id="rId17"/>
     <sheet name="tcADMN074" sheetId="26" r:id="rId18"/>
     <sheet name="maxuser" sheetId="19" r:id="rId19"/>
+    <sheet name="maxuser2" sheetId="28" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5386" uniqueCount="1071">
   <si>
     <t>Name</t>
   </si>
@@ -3767,7 +3768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85318551-19C4-4651-86D5-A01FCD0BEDC6}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4401,7 +4402,7 @@
   <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17488,6 +17489,6035 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A16C5A2-D7D3-4387-8D13-7A532A4D59B2}">
+  <dimension ref="A1:H231"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C4" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C5" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C6" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C7" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C8" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C9" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C10" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C11" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C12" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C13" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C14" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C15" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C16" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C17" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C18" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C19" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C20" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C21" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C22" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C23" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C24" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C25" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C26" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C27" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C28" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C29" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C30" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C31" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C32" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C33" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C34" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C35" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C36" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C37" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C38" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C39" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C40" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C41" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C42" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C43" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C44" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C45" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C46" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C47" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C48" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C49" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C50" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C51" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C52" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C53" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C54" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C55" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C56" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C57" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C58" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C59" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C60" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C61" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C62" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C63" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C64" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C65" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C66" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C67" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C68" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C69" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C70" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C71" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C72" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C73" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C74" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C75" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C76" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C77" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C78" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C79" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C80" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C81" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C82" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C83" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C84" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C85" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C86" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C87" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C88" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C89" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C90" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C91" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C92" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C93" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C94" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C95" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C96" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C97" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C98" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C99" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C100" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C101" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C102" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C103" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C104" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C105" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C106" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C107" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C108" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C109" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C110" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C111" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C112" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C113" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C114" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C115" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C116" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C117" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C118" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C119" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C120" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C121" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C122" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C123" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C124" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C125" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C126" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C127" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C128" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C129" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C130" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C131" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C132" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C133" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C134" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C135" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C136" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="C137" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C138" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C139" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C140" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C141" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C142" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="C143" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C144" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C145" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C146" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C147" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F147" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C148" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C149" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F149" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C150" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C151" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C152" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C153" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C154" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F154" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C155" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F155" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C156" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C157" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C158" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C159" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C160" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F160" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C161" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="C162" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H162" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="C163" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F163" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="C164" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C165" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C166" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="C167" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="C168" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H168" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C169" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F169" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="C170" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H170" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C171" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C172" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H172" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C173" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C174" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F174" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C175" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="C176" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="C177" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="C178" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F178" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="C179" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="C180" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C181" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F181" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C182" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C183" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F183" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C184" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C185" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C186" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C187" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C188" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G188" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="C189" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F189" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C190" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C191" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C192" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F192" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C193" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F193" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C194" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C195" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F195" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C196" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F196" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H196" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C197" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F197" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C198" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F198" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C199" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F199" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C200" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F200" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C201" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F201" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C202" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F202" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H202" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C203" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F203" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C204" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F204" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C205" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F205" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C206" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F206" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H206" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C207" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F207" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H207" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C208" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F208" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H208" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C209" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F209" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C210" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F210" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H210" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C211" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F211" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C212" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F212" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H212" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C213" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F213" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C214" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F214" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H214" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C215" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F215" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C216" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F216" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H216" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C217" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F217" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C218" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F218" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C219" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F219" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C220" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F220" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H220" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C221" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F221" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H221" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C222" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F222" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G222" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H222" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C223" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F223" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C224" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F224" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H224" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C225" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F225" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H225" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C226" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F226" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H226" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C227" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F227" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C228" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F228" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H228" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C229" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F229" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C230" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F230" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G230" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H230" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C231" s="8">
+        <v>111111</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F231" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H231" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData/UserManagementTestData.xlsx
+++ b/src/test/resources/TestData/UserManagementTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSC\git\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1510CD-6794-4B23-B5B7-14F34A6DBEDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13FBB2B-08E8-4E2D-AA18-1B274911C563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" firstSheet="12" activeTab="15" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="900" firstSheet="12" activeTab="13" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN_024" sheetId="27" r:id="rId1"/>
@@ -3261,16 +3261,16 @@
     <t>074</t>
   </si>
   <si>
+    <t>ADMN045B</t>
+  </si>
+  <si>
+    <t>45B</t>
+  </si>
+  <si>
     <t>ADMN045A</t>
   </si>
   <si>
     <t>45A</t>
-  </si>
-  <si>
-    <t>ADMN045B</t>
-  </si>
-  <si>
-    <t>45B</t>
   </si>
 </sst>
 </file>
@@ -3786,17 +3786,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -3862,18 +3862,18 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -3948,18 +3948,18 @@
       <selection activeCell="A3" sqref="A3:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -4034,17 +4034,17 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -4113,12 +4113,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>1051</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>1056</v>
       </c>
@@ -4161,19 +4161,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3A327-0F46-4783-B94F-297513D7798F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4190,12 +4190,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C2" s="5">
         <v>454545</v>
@@ -4223,14 +4223,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4247,12 +4247,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C2" s="5">
         <v>454545</v>
@@ -4276,13 +4276,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B2026-14CD-4EAC-BA6F-5B631C702D2B}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>1051</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>1062</v>
       </c>
@@ -4329,9 +4329,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>1051</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>1060</v>
       </c>
@@ -4378,12 +4378,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>1051</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>1065</v>
       </c>
@@ -4430,12 +4430,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>1051</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>1067</v>
       </c>
@@ -4482,17 +4482,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -4554,12 +4554,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>1051</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>1069</v>
       </c>
@@ -4606,17 +4606,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>111</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>121</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>125</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>127</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>129</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>131</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>133</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>135</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>139</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>143</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>147</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>149</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>151</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>155</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>157</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>159</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>161</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>163</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>165</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>167</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>169</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>171</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>173</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>175</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>177</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>179</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>181</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>183</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>185</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>187</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>189</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>191</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>193</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>195</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>197</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>199</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>201</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>203</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>205</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>207</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>209</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>211</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>213</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>215</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>217</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>219</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>221</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>223</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>225</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>227</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>229</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>231</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>233</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>235</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>237</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>239</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>241</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>243</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>245</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>247</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>249</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>251</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>253</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>255</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>257</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>259</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>261</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>263</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>265</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>267</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>269</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>271</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>273</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>275</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>277</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>279</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>281</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>283</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>285</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>287</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>289</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>291</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>293</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>295</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>297</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>299</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>301</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>303</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>305</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>307</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>309</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>311</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>313</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>315</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>317</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>319</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>321</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>323</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>325</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>327</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>329</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>331</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>333</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>335</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>337</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>339</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>341</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>343</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>345</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>347</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>349</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>351</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>353</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>355</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>357</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>359</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>361</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>363</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>365</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>367</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>369</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>371</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>373</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>375</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>377</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>379</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>381</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>383</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>385</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>387</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>389</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>391</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>393</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>395</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>397</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>399</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>401</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>403</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>405</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>407</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>409</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>411</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>413</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>415</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>417</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>419</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>421</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>423</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>425</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>427</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>429</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>431</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>433</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>435</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>437</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>439</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>441</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>443</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>445</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>447</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>450</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>452</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>454</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>456</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>458</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>460</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>462</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>464</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>466</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>468</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>470</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>472</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>474</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>476</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>478</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>480</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>482</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>484</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>486</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>488</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>490</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>492</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>494</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>496</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>498</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>500</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>502</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>504</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>506</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>508</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>510</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>512</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>514</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>516</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>518</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>520</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>522</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>524</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>526</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>528</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>530</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>532</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>534</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>536</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>538</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>540</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>542</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>544</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>546</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>548</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>550</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>552</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>554</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>556</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>558</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>560</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>562</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>564</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>566</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>568</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>570</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>572</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>574</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>576</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>578</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>580</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>582</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>584</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>586</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>588</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>590</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>592</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>594</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>596</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>598</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>600</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>602</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>604</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>606</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>608</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>610</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>612</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>614</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>616</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>618</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>620</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>622</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>624</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>626</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>628</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>630</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>632</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>634</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>636</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>638</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>640</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>642</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>644</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>646</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>648</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>650</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>652</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>654</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>656</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>658</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>660</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>662</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>664</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>666</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>668</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>670</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>672</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>674</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>676</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>678</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>680</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>682</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>684</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>686</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>688</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>690</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>692</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>694</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>696</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>698</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>700</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>702</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>704</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>706</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>708</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>710</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>712</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>714</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>716</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>718</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>720</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>722</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>724</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>726</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>728</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>730</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>732</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>734</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>736</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>738</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>740</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>742</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>744</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>746</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>748</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>751</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>753</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>755</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>757</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>759</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>761</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>763</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>765</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>767</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>769</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>771</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>773</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>775</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>777</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>779</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>781</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>783</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>785</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>787</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>789</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>791</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>793</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>795</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>797</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>799</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>801</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>803</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>805</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>807</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>809</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>811</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>813</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>815</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>817</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>819</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>821</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>823</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>825</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>827</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>829</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>831</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>833</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>835</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>837</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>839</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>841</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>843</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>845</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>847</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>849</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>851</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>853</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>855</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>857</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>859</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>861</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>863</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>865</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>867</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>869</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>871</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>873</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>875</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>877</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>879</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>881</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>883</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>885</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>887</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>889</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>891</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>893</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>895</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>897</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>899</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>901</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>903</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>905</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>907</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>909</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>911</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>913</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>915</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>917</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>919</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>921</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>923</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>925</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>927</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>929</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>931</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>933</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>935</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>937</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>939</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>941</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>943</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>945</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>947</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>949</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>951</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>953</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>955</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>957</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>959</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>961</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>963</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>965</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>967</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>969</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>971</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>973</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>975</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>977</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>979</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>981</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>983</v>
       </c>
@@ -16758,7 +16758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>985</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>987</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>989</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>991</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>993</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>995</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>997</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>999</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>1001</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>1003</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>1005</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>1007</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>1009</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>1011</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>1013</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>1015</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>1017</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>1019</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>1021</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>1023</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>1025</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>1027</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>1029</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>1031</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>1033</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>1035</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>1037</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>1039</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>1041</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>1043</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>1045</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>1047</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>1049</v>
       </c>
@@ -17629,17 +17629,17 @@
       <selection activeCell="A2" sqref="A2:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>688</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>690</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>692</v>
       </c>
@@ -17743,7 +17743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>694</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>696</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>698</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>700</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>702</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>704</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>706</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>708</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>710</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>712</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>714</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>716</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>718</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>720</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>722</v>
       </c>
@@ -18133,7 +18133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>724</v>
       </c>
@@ -18159,7 +18159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>726</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>728</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>730</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>732</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>734</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>736</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>738</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>740</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>742</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>744</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>746</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>748</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>751</v>
       </c>
@@ -18497,7 +18497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>753</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>755</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>757</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>759</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>761</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>763</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>765</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>767</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>769</v>
       </c>
@@ -18731,7 +18731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>771</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>773</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>775</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>777</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>779</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>781</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>783</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>785</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>787</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>789</v>
       </c>
@@ -18991,7 +18991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>791</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>793</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>795</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>797</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>799</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>801</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>803</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>805</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>807</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>809</v>
       </c>
@@ -19251,7 +19251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>811</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>813</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>815</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>817</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>819</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>821</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>823</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>825</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>827</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>829</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>831</v>
       </c>
@@ -19537,7 +19537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>833</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>835</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>837</v>
       </c>
@@ -19615,7 +19615,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>839</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>841</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>843</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>845</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>847</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>849</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>851</v>
       </c>
@@ -19797,7 +19797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>853</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>855</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>857</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>859</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>861</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>863</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>865</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>867</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>869</v>
       </c>
@@ -20031,7 +20031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>871</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>873</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>875</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>877</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>879</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>881</v>
       </c>
@@ -20187,7 +20187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>883</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>885</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>887</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>889</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>891</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>893</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>895</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>897</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>899</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>901</v>
       </c>
@@ -20447,7 +20447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>903</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>905</v>
       </c>
@@ -20499,7 +20499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>907</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>909</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>911</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>913</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>915</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>917</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>919</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>921</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>923</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>925</v>
       </c>
@@ -20759,7 +20759,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>927</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>929</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>931</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>933</v>
       </c>
@@ -20863,7 +20863,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>935</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>937</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>939</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>941</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>943</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>945</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>947</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>949</v>
       </c>
@@ -21071,7 +21071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>951</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>953</v>
       </c>
@@ -21123,7 +21123,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>955</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>957</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>959</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>961</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>963</v>
       </c>
@@ -21253,7 +21253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>965</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>967</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>969</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>971</v>
       </c>
@@ -21357,7 +21357,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>973</v>
       </c>
@@ -21383,7 +21383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>975</v>
       </c>
@@ -21409,7 +21409,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>977</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>979</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>981</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>983</v>
       </c>
@@ -21513,7 +21513,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>985</v>
       </c>
@@ -21539,7 +21539,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>987</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>989</v>
       </c>
@@ -21591,7 +21591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>991</v>
       </c>
@@ -21617,7 +21617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>993</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>995</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>997</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>999</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>1001</v>
       </c>
@@ -21747,7 +21747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>1003</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>1005</v>
       </c>
@@ -21799,7 +21799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>1007</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>1009</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>1011</v>
       </c>
@@ -21877,7 +21877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>1013</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>1015</v>
       </c>
@@ -21929,7 +21929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>1017</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>1019</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>1021</v>
       </c>
@@ -22007,7 +22007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>1023</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>1025</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>1027</v>
       </c>
@@ -22085,7 +22085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>1029</v>
       </c>
@@ -22111,7 +22111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>1031</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>1033</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>1035</v>
       </c>
@@ -22189,7 +22189,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>1037</v>
       </c>
@@ -22215,7 +22215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>1039</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>1041</v>
       </c>
@@ -22267,7 +22267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>1043</v>
       </c>
@@ -22293,7 +22293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>1045</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>1047</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>1049</v>
       </c>
@@ -22384,15 +22384,15 @@
       <selection activeCell="A3" sqref="A3:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -22449,17 +22449,17 @@
       <selection activeCell="A8" sqref="A8:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="7"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="68.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="68.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -22482,7 +22482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -22528,7 +22528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -22574,7 +22574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -22597,7 +22597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -22639,15 +22639,15 @@
       <selection activeCell="A3" sqref="A3:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -22703,17 +22703,17 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="43.5546875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -22776,15 +22776,15 @@
       <selection activeCell="A3" sqref="A3:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" style="18" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -22804,7 +22804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
@@ -22841,16 +22841,16 @@
       <selection activeCell="A3" sqref="A3:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="52.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22873,7 +22873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -22912,17 +22912,17 @@
       <selection activeCell="A3" sqref="A3:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22948,7 +22948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
